--- a/apollo_results_true_only.xlsx
+++ b/apollo_results_true_only.xlsx
@@ -818,8 +818,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRUE. Lyft partners with Nexar, an Israeli firm, to offer autonomous mobility at scale.
-</t>
+          <t>TRUE. The company has a confirmed business relationship with vHive, a company headquartered in Herzliya, Israel, as evidenced by their integrated solution for digital twin tower management.</t>
         </is>
       </c>
     </row>
